--- a/data-raw/moore.uniformity.xlsx
+++ b/data-raw/moore.uniformity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5071C4C4-0162-4DA7-B3BF-17E8CA1013C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="7776" activeTab="8"/>
+    <workbookView xWindow="3960" yWindow="2920" windowWidth="7590" windowHeight="8130" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab26" sheetId="1" r:id="rId1"/>
@@ -21,12 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,14 +70,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -113,7 +118,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -358,16 +363,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -408,7 +413,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -449,7 +454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -490,7 +495,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -531,7 +536,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -572,7 +577,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -613,7 +618,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -654,7 +659,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -695,7 +700,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -736,7 +741,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -777,7 +782,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -818,7 +823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -865,20 +870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -955,7 +960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1109,7 +1114,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2264,7 +2269,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2495,7 +2500,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2732,20 +2737,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2899,7 +2904,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2976,7 +2981,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3438,7 +3443,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3515,7 +3520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3592,7 +3597,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3675,19 +3680,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="25" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3841,7 +3846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3918,7 +3923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4149,7 +4154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4226,7 +4231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4457,7 +4462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4534,7 +4539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4617,14 +4622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="2" bestFit="1" customWidth="1"/>
@@ -4633,7 +4638,7 @@
     <col min="11" max="25" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4710,7 +4715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4787,7 +4792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4941,7 +4946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5095,7 +5100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5172,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5249,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5326,7 +5331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5480,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5563,16 +5568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5654,7 +5659,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>22.56</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5736,7 +5741,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5900,7 +5905,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5941,7 +5946,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5982,7 +5987,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6064,7 +6069,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -6187,7 +6192,7 @@
         <v>19.86</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -6228,7 +6233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -6269,7 +6274,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>20.56</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -6351,7 +6356,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -6398,16 +6403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6448,7 +6453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6489,7 +6494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6530,7 +6535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6612,7 +6617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6694,7 +6699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6735,7 +6740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -6817,7 +6822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -6858,7 +6863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6940,7 +6945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -6981,7 +6986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7145,7 +7150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -7233,16 +7238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -7283,7 +7288,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7324,7 +7329,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7365,7 +7370,7 @@
         <v>27.67</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7406,7 +7411,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7447,7 +7452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7488,7 +7493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -7529,7 +7534,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7570,7 +7575,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7611,7 +7616,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7652,7 +7657,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7693,7 +7698,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7734,7 +7739,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7775,7 +7780,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7816,7 +7821,7 @@
         <v>28.22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7857,7 +7862,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7939,7 +7944,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7980,7 +7985,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -8021,7 +8026,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
@@ -8068,16 +8073,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8200,7 +8205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8241,7 +8246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -8323,7 +8328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -8364,7 +8369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -8446,7 +8451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -8528,7 +8533,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -8569,7 +8574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -8651,7 +8656,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8692,7 +8697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -8774,7 +8779,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8815,7 +8820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -8856,7 +8861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>20</v>
       </c>
